--- a/medicine/Enfance/Béatrice_Appia/Béatrice_Appia.xlsx
+++ b/medicine/Enfance/Béatrice_Appia/Béatrice_Appia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Appia</t>
+          <t>Béatrice_Appia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Béatrice Appia est une artiste peintre française d'origine suisse. Elle est née le 3 décembre 1899[1] à Genève et est morte à Versailles le 30 septembre 1998.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béatrice Appia est une artiste peintre française d'origine suisse. Elle est née le 3 décembre 1899 à Genève et est morte à Versailles le 30 septembre 1998.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Appia</t>
+          <t>Béatrice_Appia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Appia naît en 1899 à Eaux-Vives, un quartier de Genève (Suisse), devenant ainsi la cadette d'une famille de six enfants, de son père Paul Henry Appia, pasteur de l'Église réformée et de sa mère Thérèse Marguerite Augusta Rey. Son grand-oncle Louis Appia (1818-1898) est un des cofondateurs de la Croix-Rouge.
 Son père qu'elle n'a pour ainsi dire jamais connu meurt en 1901 . Depuis, sa mère est obligée de pourvoir à l'entretien plus qu'à l'éducation de ses six enfants, dont Béatrice est la cadette, en se consacrant à la peinture d'art d'inspiration religieuse pour la vendre ensuite.
@@ -528,7 +542,7 @@
 En 1928, de retour en France avec son mari d'un grand voyage à caractère artistique au Maroc, Béatrice voit ce dernier se convertir dans la littérature.
 En 1929 a lieu de dernier grand voyage en campagnes de peinture au Maroc où le couple Dabit séjourne chez Christian Caillard à Marrakech.
 En 1936, Eugène Dabit est invité par André Gide à participer à un grand voyage à caractère littéraire. Il part de Londres en bateau avec quelques amis pour l'URSS. À Paris, Béatrice apprend avec stupeur le décès de son mari, survenu inopinément à Sébastopol le 25 août par suite d'une courte maladie d'origine inconnue. Béatrice s'achète une mansarde atelier dans le IXe et quitte à regret son pavillon atelier de la rue Paul de Kock.
-En 1937, elle fait un premier voyage en Afrique[2], en campagnes de peinture en Casamance.  En 1938, à Conakry, elle  fera la connaissance de Louis Blacher, gouverneur de Guinée, colonie française. Elle l'épousera en octobre.  Formée par un ethnologue, elle fait connaissance des us et coutumes de diverses populations indigènes rencontrées au cours de ses périples. Elle rapportera ainsi plus d'une centaine de précieux dessins d'enfants écoliers de tous âges ainsi que des peintures et des photographies de personnages, de manifestations et de fêtes dont elle fera don plus tard au musée de l'Homme à Paris.
+En 1937, elle fait un premier voyage en Afrique, en campagnes de peinture en Casamance.  En 1938, à Conakry, elle  fera la connaissance de Louis Blacher, gouverneur de Guinée, colonie française. Elle l'épousera en octobre.  Formée par un ethnologue, elle fait connaissance des us et coutumes de diverses populations indigènes rencontrées au cours de ses périples. Elle rapportera ainsi plus d'une centaine de précieux dessins d'enfants écoliers de tous âges ainsi que des peintures et des photographies de personnages, de manifestations et de fêtes dont elle fera don plus tard au musée de l'Homme à Paris.
 En juin 1939, enceinte, elle revient avec son mari à Paris. Dès les premiers jours d'août, la guerre éclate en Europe. Le 8 août, Béatrice accouche à Paris d'un petit garçon prénommé Yves puis Eugène en souvenir de feu son premier mari. En septembre elle retourne en Afrique avec son bébé rejoindre son époux en poste à Conakry. Elle fait plusieurs campagnes de peinture en Guinée française.
 En 1940, à la suite du limogeage de Louis Blacher de son poste de gouverneur, la famille se retire à Dakar. Béatrice y fait plusieurs campagnes de peinture. Dès octobre, la famille prend l'avion à Saint-Louis du Sénégal pour Pau en zone libre française.
 En 1941, avec son fils et son mari, elle arrive le 8 janvier à Paris. La famille habite alors dans le VIIe arrondissement.
@@ -550,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Appia</t>
+          <t>Béatrice_Appia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,13 +582,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses dessins : excellente imagière, elle a fait des paysages, puis des bandes dessinées colorées à l'aquarelle sur divers thèmes (Histoire de France, faits divers de famille, etc.)
 Ses peintures: estimées à plus d'un millier et surtout à l'huile, elle a peint des natures mortes, des portraits, des nus, des paysages, des imaginaires et des scènes bibliques. L'une de ses peintures : Le montreur de masques a fait l'objet d'une tapisserie exécutée dans les ateliers Méliande.
 Ses gravures: elle en a fait plus d'une centaine.
 Ses œuvres écrites :
-Pour les enfants elle a écrit et/ou illustré: Conte de la marguerite [3], Histoire de Perlette, goutte d'eau (Marie Colmont), Histoire d'un petit âne qui avait les oreilles trop courtes, Contes de la forêt vierge, Ouyara, chien esquimau et de nombreux autres contes pour adultes dont Les trois corbeaux[4].
+Pour les enfants elle a écrit et/ou illustré: Conte de la marguerite , Histoire de Perlette, goutte d'eau (Marie Colmont), Histoire d'un petit âne qui avait les oreilles trop courtes, Contes de la forêt vierge, Ouyara, chien esquimau et de nombreux autres contes pour adultes dont Les trois corbeaux.
 Pour la radio anglaise, elle a écrit : Un conte de Noël.
 Elle a produit et écrit un certain nombre de rapports ethnographiques de ses voyages en Afrique.
 Terres primitives, roman tiré de ses voyages en Afrique (Éd. Colbert 1946).
